--- a/finaldataset.xlsx
+++ b/finaldataset.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14000\Downloads\FYP Shahril (IRB-2022-538)\Data analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14000\OneDrive - Nanyang Technological University\Documents\GitHub Repositories\publication-validity-flex-vbt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6AF5B2-89C4-4CA7-BA0A-DFC98DB03A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E9DE7A-E847-4843-9C2F-15628AE47C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{9195B025-BCE1-4442-A318-4872DF309047}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{9195B025-BCE1-4442-A318-4872DF309047}"/>
   </bookViews>
   <sheets>
-    <sheet name="PowerClean" sheetId="12" r:id="rId1"/>
-    <sheet name="Snatch" sheetId="13" r:id="rId2"/>
-    <sheet name="D1 - Power Clean" sheetId="2" r:id="rId3"/>
-    <sheet name="D2 - Power Clean" sheetId="7" r:id="rId4"/>
-    <sheet name="D1 - Snatch" sheetId="11" r:id="rId5"/>
-    <sheet name="D2 - Snatch" sheetId="5" r:id="rId6"/>
+    <sheet name="Info" sheetId="14" r:id="rId1"/>
+    <sheet name="PowerClean" sheetId="12" r:id="rId2"/>
+    <sheet name="Snatch" sheetId="13" r:id="rId3"/>
+    <sheet name="D1 - Power Clean" sheetId="2" r:id="rId4"/>
+    <sheet name="D2 - Power Clean" sheetId="7" r:id="rId5"/>
+    <sheet name="D1 - Snatch" sheetId="11" r:id="rId6"/>
+    <sheet name="D2 - Snatch" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
   <si>
     <t>1RM</t>
   </si>
@@ -147,12 +170,48 @@
   <si>
     <t>CV (%)</t>
   </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Height (cm)</t>
+  </si>
+  <si>
+    <t>Mass (kg)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Session 1_L</t>
+  </si>
+  <si>
+    <t>Session 1_R</t>
+  </si>
+  <si>
+    <t>Session 2_L</t>
+  </si>
+  <si>
+    <t>Session 2_R</t>
+  </si>
+  <si>
+    <t>Recorded</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +225,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -496,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -591,6 +656,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -906,12 +977,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B7D03F-6924-443F-B36F-FA5845209F87}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" cm="1">
+        <f t="array" ref="A2:A10">_xlfn.SEQUENCE(9)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2">
+        <v>158</v>
+      </c>
+      <c r="E2" s="2">
+        <v>52</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="34">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="E3" s="34">
+        <v>49</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>171.6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2">
+        <v>160.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>165.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>156.4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>55.8</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>156.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>65.8</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>165.3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <v>169.1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA8F9DB-7AA9-4837-A999-1B65C88C784B}">
   <dimension ref="A1:AC131"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10633,7 +11017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6153F045-71EC-450E-B5E2-75EC41C6F52C}">
   <dimension ref="A1:S127"/>
   <sheetViews>
@@ -17058,12 +17442,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C2C677-E80C-4A0C-9142-C079B43D7C32}">
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
@@ -21700,12 +22084,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD79105-D78D-4EB0-8899-F7B2C8D25AEF}">
   <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -25710,7 +26094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D0007E-5F69-4358-80AE-89AF69F453E4}">
   <dimension ref="A1:L127"/>
   <sheetViews>
@@ -30303,13 +30687,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C00500-B857-4D75-839F-0991642F19ED}">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G135" sqref="G135"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
